--- a/biology/Botanique/Lespedeza/Lespedeza.xlsx
+++ b/biology/Botanique/Lespedeza/Lespedeza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lespedeza est un genre d'environ 40 espèces (y compris les hybrides) de plantes à fleurs de la famille du pois et des haricots (Fabaceae, Légumineuses), communément appelés Lespédéza (en anglais : bush clover, japanese clover (hagi, plus spécifiquement pour les espèces asiatiques)). Le genre est originaire des régions tempérées chaudes à subtropicales de l'est de l'Amérique du Nord, de l'est et du sud de l'Asie et de l'Australasie.
 </t>
@@ -511,9 +523,11 @@
           <t>Nom de la plante</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le botaniste Américain Asa Gray (1810 – 1888), le Lespédéza doit son nom au gouverneur de l'Est de la Floride Vicente Manuel de Céspedes (1784-1790) qui, par une lettre, a permis au botaniste André Michaux d'explorer l'Est de la Floride à la recherche de nouvelles espèces de plantes (où Michaux trouva le Lespedeza), mais quand Céspedes a écrit la lettre, son nom a été changé en "Zespedez". Donc, quand le livre de Michaux Flora Boreali-Americana a été imprimé en 1802, le nom de "Céspedes" utilisé pour désigner la plante a été écrit en tant que "Lespedez", d'où le nom actuel de la plante[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le botaniste Américain Asa Gray (1810 – 1888), le Lespédéza doit son nom au gouverneur de l'Est de la Floride Vicente Manuel de Céspedes (1784-1790) qui, par une lettre, a permis au botaniste André Michaux d'explorer l'Est de la Floride à la recherche de nouvelles espèces de plantes (où Michaux trouva le Lespedeza), mais quand Céspedes a écrit la lettre, son nom a été changé en "Zespedez". Donc, quand le livre de Michaux Flora Boreali-Americana a été imprimé en 1802, le nom de "Céspedes" utilisé pour désigner la plante a été écrit en tant que "Lespedez", d'où le nom actuel de la plante,.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Culture et utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines espèces sont cultivées en jardin ou comme plantes ornementales, sont utilisées comme fourrage, notamment dans le sud de États-Unis, et comme moyen d'enrichissement des sols et de prévention contre l'érosion. Dans certaines régions, certaines espèces sont envahissantes.
-En Europe, Lespedeza cuneata est ainsi inscrite dans la liste des espèces exotiques envahissantes préoccupantes pour l’Union européenne[4]. Cela signifie qu'elle ne peut pas être importée, cultivée, commercialisée, plantée, ou libérée intentionnellement dans la nature, et ce nulle part dans l’Union européenne[5].
+En Europe, Lespedeza cuneata est ainsi inscrite dans la liste des espèces exotiques envahissantes préoccupantes pour l’Union européenne. Cela signifie qu'elle ne peut pas être importée, cultivée, commercialisée, plantée, ou libérée intentionnellement dans la nature, et ce nulle part dans l’Union européenne.
 Lespédéza, comme les autres légumineuses, ont des nodules racinaires qui abritent des bactéries capables de fixer l'azote de l'air dans le sol qui pourra ensuite être utilisé par d'autres plantes. Les producteurs peuvent profiter de ce processus en plantant ces plantes dans leurs champs pour y apporter de l'azote, de sorte qu'ils utiliseront moins d'engrais.
-Les feuilles et les racines de L. bicolor contiennent de la l-méthoxy-N,N-diméthyltryptamine (lespedamin), ainsi que les Nω,Nω-DMTs et leurs oxydes, ainsi que certaines bufoténines[6].
+Les feuilles et les racines de L. bicolor contiennent de la l-méthoxy-N,N-diméthyltryptamine (lespedamin), ainsi que les Nω,Nω-DMTs et leurs oxydes, ainsi que certaines bufoténines.
 </t>
         </is>
       </c>
@@ -578,9 +594,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Au Japon
-Dans le jeu de cartes traditionnel japonais Hanafuda, des lespédézas sont représentés sur la série des 4 cartes du mois de juillet.
-Le poète Kobayashi Issa lui a consacré un haïku[7] :
+          <t>Au Japon</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dans le jeu de cartes traditionnel japonais Hanafuda, des lespédézas sont représentés sur la série des 4 cartes du mois de juillet.
+Le poète Kobayashi Issa lui a consacré un haïku :
 Un jeune cerf 
 dans sa bouche
 un brin de lespedeza fleuri.</t>
@@ -611,19 +632,21 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les espèces et hybrides reconnus dans le genre Lespedeza comprennent[8] :
+Les espèces et hybrides reconnus dans le genre Lespedeza comprennent :
 Lespedeza angustifolia (Pursh) Elliott
 Lespedeza ×angustifolioides T.B.Lee
-Lespedeza bicolor Turcz. (syn. L. bicolor var. japonica Nakai) – shrub lespedeza[9]
+Lespedeza bicolor Turcz. (syn. L. bicolor var. japonica Nakai) – shrub lespedeza
 Lespedeza buergeri Miq.
 Lespedeza capitata Michx. (syn. L. frutescens Elliott, L. stuevei DC.)
 Lespedeza caraganae Bunge
 Lespedeza chinensis G.Don
 Lespedeza cuneata (Dumont-Cours.) G. Don (syn Lespedeza Sericea)
-Lespedeza cyrtobotrya Miq. – leafy lespedeza[9]
+Lespedeza cyrtobotrya Miq. – leafy lespedeza
 Lespedeza cyrtobuergeri Akiyama &amp; H.Ohba
 Lespedeza davidii Franch.
 Lespedeza davurica (Laxm.) Schindl.
@@ -639,20 +662,20 @@
 Lespedeza hirta (L.) Hornem.
 Lespedeza hirta ssp. curtissii Clewell (syn. L. hirta Elliott)
 Lespedeza homoloba Nakai
-Lespedeza inschanica (Maxim.) Schindl. – greenish juncea lespedeza[9]
+Lespedeza inschanica (Maxim.) Schindl. – greenish juncea lespedeza
 Lespedeza intermedia (S.Watson) Britton (syn. L.  frutescens (L.) Britton, L. frutescens var. acutifructa Farw.)
-Lespedeza intermixta Makino (possibly a hybrid) – neonchul lespedeza[9]
+Lespedeza intermixta Makino (possibly a hybrid) – neonchul lespedeza
 Lespedeza japonica L.H.Bailey
-Lespedeza juncea (L.f.) Pers. – juncea lespedeza[9]
+Lespedeza juncea (L.f.) Pers. – juncea lespedeza
 Lespedeza juncea var. sericea (Thunb.) Lace &amp; Hauech (syn. L. cuneata (Dum.Cours.) G.Don)
 Lespedeza junghuhniana Bakh.f.
 Lespedeza kagoshimensis Hatus.
 Lespedeza leptostachya A.Gray
-Lespedeza maximowiczii R.C.Schneid. – Korean lespedeza[9]
-Lespedeza melanantha Nakai – black-flower lespedeza[9]
+Lespedeza maximowiczii R.C.Schneid. – Korean lespedeza
+Lespedeza melanantha Nakai – black-flower lespedeza
 Lespedeza mucronata Ricker
 Lespedeza ×patentibicolor T.B.Lee
-Lespedeza pilosa (Thunb.) Siebold &amp; Zucc. – pilose lespedeza[9]
+Lespedeza pilosa (Thunb.) Siebold &amp; Zucc. – pilose lespedeza
 Lespedeza potaninii Vassilcz.
 Lespedeza procumbens Michx.
 Lespedeza pubescens Hayata
@@ -664,12 +687,12 @@
 Lespedeza thunbergii (DC.) Nakai (syn. L. elliptica Maxim., L. formosa (Vogel) Koehne, L. formosa ssp. elliptica (Maxim.) Akiyama &amp; H.Ohba)
 Lespedeza thunbergii var. var. thunbergii (DC.)Nakai (syn. L. patens Nakai, L. patens var. obtusifolia Nakai)
 Lespedeza thunbergii var. velutina (Nakai) H.Ohashi (syn. L. intermedia Nakai, L. intermedia var. angustifolia Nakai)
-Lespedeza tomentosa (Thunb.) Maxim. (syn. L. hirta Miq.) – woolly lespedeza[9]
+Lespedeza tomentosa (Thunb.) Maxim. (syn. L. hirta Miq.) – woolly lespedeza
 Lespedeza violacea (L.) Pers.
-Lespedeza virgata (Murray) DC. – Wando lespedeza[9]
+Lespedeza virgata (Murray) DC. – Wando lespedeza
 Lespedeza virginica (L.) Britton (syn. L. angustifolia Darl.)
 Lespedeza wilfordii Ricker
-L'identification et la validité spécifique de L. schindleri est incertaine[10]. En outre, certaines espèces autrefois placées dans ce genre sont maintenant placées ailleurs, généralement dans les Lespedezinae, par exemple, dans le genre Campylotropis. Elles comprennent[11] :
+L'identification et la validité spécifique de L. schindleri est incertaine. En outre, certaines espèces autrefois placées dans ce genre sont maintenant placées ailleurs, généralement dans les Lespedezinae, par exemple, dans le genre Campylotropis. Elles comprennent :
 Lespedeza speciosa Schindl. = Campylotropis speciosa (Schindl.) Schindl.
 Lespedeza striata (Thunb.) Crochet. &amp; Arn. = Kummerowia striata (Thunb.) Schindl.
 Lespedeza tomentosa Maxim. = Campylotropis pinetorum (Kurz) Schindl.</t>
@@ -700,9 +723,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (23 septembre 2018)[12] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (23 septembre 2018) :
 Lespedeza angustifolia (Pursh) Ell.
 Lespedeza bicolor Turcz.
 Lespedeza capitata Michx.
@@ -727,7 +752,7 @@
 Lespedeza violacea (L.) Pers.
 Lespedeza virgata (Thunb.) DC.
 Lespedeza virginica (L.) Britt.
-Selon Catalogue of Life                                   (23 septembre 2018)[13] :
+Selon Catalogue of Life                                   (23 septembre 2018) :
 Lespedeza angustifolia (Pursh)Elliott
 Lespedeza bicolor Turcz.
 Lespedeza buergeri Miq.
@@ -774,7 +799,7 @@
 Lespedeza virgata (Murray)DC.
 Lespedeza virginica (L.)Britton
 Lespedeza wilfordii Ricker
-Selon GRIN            (23 septembre 2018)[14] :
+Selon GRIN            (23 septembre 2018) :
 Lespedeza angustifolia (Pursh) Elliott
 Lespedeza bicolor Turcz.
 Lespedeza buergeri Miq.
@@ -805,7 +830,7 @@
 Lespedeza violacea (L.) Pers.
 Lespedeza virgata (Thunb.) DC.
 Lespedeza virginica (L.) Britton
-Selon ITIS      (23 septembre 2018)[15] :
+Selon ITIS      (23 septembre 2018) :
 Lespedeza ×acuticarpa Mack. &amp; Bush (pro. sp.)
 Lespedeza angustifolia (Pursh) Elliott
 Lespedeza bicolor Turcz.
@@ -839,7 +864,7 @@
 Lespedeza violacea (L.) Pers.
 Lespedeza virgata (Thunb.) DC.
 Lespedeza virginica (L.) Britton
-Selon The Plant List            (23 septembre 2018)[16] :
+Selon The Plant List            (23 septembre 2018) :
 Lespedeza acuticarpa Mack. &amp; Bush
 Lespedeza alata (Schindl.) H. Lév.
 Lespedeza angustifolia (Pursh) Elliott
@@ -898,7 +923,7 @@
 Lespedeza virgata (Murray) DC.
 Lespedeza virginica (L.) Britton
 Lespedeza wilfordii Ricker
-Selon Tropicos                                           (23 septembre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (23 septembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Lespedeza aitchisonii Ricker
 Lespedeza alata (Schindl.) H. Lév.
 Lespedeza albiflora Ricker
